--- a/data/triples_output/Triples_Final_All_Relevant_test.xlsx
+++ b/data/triples_output/Triples_Final_All_Relevant_test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,7 +496,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>binds_to</t>
+          <t>binds</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>induces</t>
+          <t>triggers</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -661,7 +661,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Astrocyte_Activation</t>
+          <t>Immune_Response</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>astrocytes</t>
+          <t>immune_response</t>
         </is>
       </c>
     </row>
@@ -696,22 +696,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Microglia_Activation</t>
+          <t>Antibody_Production</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SARS-CoV-2_infection</t>
+          <t>Immune_response</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>activates</t>
+          <t>produces</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>microglia</t>
+          <t>antibodies</t>
         </is>
       </c>
     </row>
@@ -731,22 +731,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Immune_Response</t>
+          <t>T_Cell_Activation</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SARS-CoV-2_infection</t>
+          <t>Immune_response</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>triggers</t>
+          <t>activates</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>immune_response</t>
+          <t>T_cells</t>
         </is>
       </c>
     </row>
@@ -766,22 +766,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Antibody_Production</t>
+          <t>Stress_Response</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Immune_response</t>
+          <t>SARS-CoV-2_infection</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>results_in</t>
+          <t>induces</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>antibody_production</t>
+          <t>stress_response</t>
         </is>
       </c>
     </row>
@@ -801,22 +801,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>T_Cell_Activation</t>
+          <t>Epigenetic_Modification</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Immune_response</t>
+          <t>Stress_response</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>activates</t>
+          <t>causes</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>T_cells</t>
+          <t>epigenetic_modification</t>
         </is>
       </c>
     </row>
@@ -836,57 +836,57 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Epigenetic_Modification</t>
+          <t>Psychiatric_Symptoms</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Stress</t>
+          <t>Epigenetic_modification</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>induces</t>
+          <t>leads_to</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>epigenetic_modification</t>
+          <t>psychiatric_symptoms</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://media.springernature.com/lw685/springer-static/image/art%3A10.1007%2Fs12640-020-00219-8/MediaObjects/12640_2020_219_Fig1_HTML.png</t>
+          <t>https://media.springernature.com/lw1200/springer-static/image/art%3A10.1007%2Fs11033-024-09279-x/MediaObjects/11033_2024_9279_Fig2_HTML.png</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://media.springernature.com/lw685/springer-static/image/art%3A10.1007%2Fs12640-020-00219-8/MediaObjects/12640_2020_219_Fig1_HTML.png</t>
+          <t>https://media.springernature.com/lw1200/springer-static/image/art%3A10.1007%2Fs11033-024-09279-x/MediaObjects/11033_2024_9279_Fig2_HTML.png</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Psychiatric_Symptoms</t>
+          <t>SARS-CoV-2_Entry</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Epigenetic_modification</t>
+          <t>SARS-CoV-2</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>contributes_to</t>
+          <t>enters</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>psychiatric_symptoms</t>
+          <t>Olfactory_Epithelium</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SARS-CoV-2_Entry</t>
+          <t>Neuronal_Infection</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -916,12 +916,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>enters</t>
+          <t>infects</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Olfactory_Epithelium</t>
+          <t>neurons</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SARS-CoV-2_Entry</t>
+          <t>Leukocyte_Recruitment</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SARS-CoV-2</t>
+          <t>Infected_neurons</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>travels_through</t>
+          <t>recruit</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Cribriform_plate</t>
+          <t>leukocytes</t>
         </is>
       </c>
     </row>
@@ -976,22 +976,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SARS-CoV-2_Entry</t>
+          <t>Macrophage_Trafficking</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SARS-CoV-2</t>
+          <t>Infected_macrophages</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>reaches</t>
+          <t>traffic_across</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Olfactory_bulb</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Neuronal_Infection</t>
+          <t>BBB_Disruption</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1021,115 +1021,10 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>infects</t>
+          <t>replicates_and_disrupts</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
-        <is>
-          <t>neurons</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>https://media.springernature.com/lw1200/springer-static/image/art%3A10.1007%2Fs11033-024-09279-x/MediaObjects/11033_2024_9279_Fig2_HTML.png</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>https://media.springernature.com/lw1200/springer-static/image/art%3A10.1007%2Fs11033-024-09279-x/MediaObjects/11033_2024_9279_Fig2_HTML.png</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Neuronal_Infection</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Infected_neurons</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>recruit</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>leukocytes</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>https://media.springernature.com/lw1200/springer-static/image/art%3A10.1007%2Fs11033-024-09279-x/MediaObjects/11033_2024_9279_Fig2_HTML.png</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>https://media.springernature.com/lw1200/springer-static/image/art%3A10.1007%2Fs11033-024-09279-x/MediaObjects/11033_2024_9279_Fig2_HTML.png</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Macrophage_Trafficking</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Infected_macrophages</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>traffic_across</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>BBB</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>https://media.springernature.com/lw1200/springer-static/image/art%3A10.1007%2Fs11033-024-09279-x/MediaObjects/11033_2024_9279_Fig2_HTML.png</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>https://media.springernature.com/lw1200/springer-static/image/art%3A10.1007%2Fs11033-024-09279-x/MediaObjects/11033_2024_9279_Fig2_HTML.png</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>BBB_Disruption</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>SARS-CoV-2</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>replicates_and_disrupts</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
         <is>
           <t>BBB</t>
         </is>
